--- a/报告模板设计/持有转售倒算租金/租金收益法.xlsx
+++ b/报告模板设计/持有转售倒算租金/租金收益法.xlsx
@@ -1063,7 +1063,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1196,18 +1196,9 @@
     <xf numFmtId="10" fontId="9" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="9" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="178" fontId="6" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="6" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1220,15 +1211,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1238,9 +1220,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1256,9 +1235,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1268,31 +1244,70 @@
     <xf numFmtId="180" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
@@ -1665,8 +1680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1682,125 +1697,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" customHeight="1" thickTop="1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="84" t="s">
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="71" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="21" customHeight="1">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="56" t="s">
         <v>142</v>
       </c>
-      <c r="D2" s="62" t="s">
+      <c r="D2" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="63" t="s">
+      <c r="E2" s="57" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="21" customHeight="1">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="64">
+      <c r="C3" s="56"/>
+      <c r="D3" s="77">
         <v>30000</v>
       </c>
-      <c r="E3" s="63" t="s">
+      <c r="E3" s="57" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="21" customHeight="1">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="56" t="s">
         <v>144</v>
       </c>
-      <c r="C4" s="62">
+      <c r="C4" s="56">
         <v>12</v>
       </c>
-      <c r="D4" s="62"/>
-      <c r="E4" s="65" t="s">
+      <c r="D4" s="56"/>
+      <c r="E4" s="58" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="21" customHeight="1">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="62" t="s">
+      <c r="C5" s="56" t="s">
         <v>143</v>
       </c>
-      <c r="D5" s="62"/>
-      <c r="E5" s="65"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="58"/>
     </row>
     <row r="6" spans="1:9" ht="33" customHeight="1">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="68">
+      <c r="C6" s="61">
         <f>ROUND(C4*(1-D7)+C8,4)</f>
         <v>11.414300000000001</v>
       </c>
-      <c r="D6" s="67"/>
-      <c r="E6" s="69" t="s">
+      <c r="D6" s="60"/>
+      <c r="E6" s="62" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="21" customHeight="1">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="62" t="s">
+      <c r="B7" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="62"/>
-      <c r="D7" s="70">
+      <c r="C7" s="56"/>
+      <c r="D7" s="79">
         <v>0.05</v>
       </c>
-      <c r="E7" s="65" t="str">
+      <c r="E7" s="58" t="str">
         <f>CONCATENATE((D7-0.02)*100,"%~",(D7+0.02)*100,"%")</f>
         <v>3%~7%</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="21" customHeight="1">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="71">
+      <c r="C8" s="63">
         <f>ROUND(G9*G8*(1-D7),4)</f>
         <v>1.43E-2</v>
       </c>
-      <c r="D8" s="62"/>
-      <c r="E8" s="65" t="s">
+      <c r="D8" s="56"/>
+      <c r="E8" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="57" t="s">
+      <c r="F8" s="54" t="s">
         <v>40</v>
       </c>
       <c r="G8" s="4">
@@ -1809,24 +1824,24 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="21" customHeight="1">
-      <c r="A9" s="61" t="s">
+      <c r="A9" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="72">
+      <c r="C9" s="64">
         <f>SUM(C10:C14)</f>
         <v>2.2067999999999999</v>
       </c>
-      <c r="D9" s="62">
+      <c r="D9" s="56">
         <f>SUM(D10:D14)</f>
         <v>34</v>
       </c>
-      <c r="E9" s="65" t="s">
+      <c r="E9" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="57" t="s">
+      <c r="F9" s="54" t="s">
         <v>41</v>
       </c>
       <c r="G9" s="81">
@@ -1834,21 +1849,21 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="21" customHeight="1">
-      <c r="A10" s="61" t="s">
+      <c r="A10" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="62" t="s">
+      <c r="B10" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62">
+      <c r="C10" s="56"/>
+      <c r="D10" s="56">
         <f>G10*G11</f>
         <v>30</v>
       </c>
-      <c r="E10" s="65" t="s">
+      <c r="E10" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="57" t="s">
+      <c r="F10" s="54" t="s">
         <v>43</v>
       </c>
       <c r="G10" s="82">
@@ -1856,21 +1871,21 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="21" customHeight="1">
-      <c r="A11" s="61" t="s">
+      <c r="A11" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="62" t="s">
+      <c r="B11" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="62">
+      <c r="C11" s="56">
         <f>ROUND(C6*G12,4)</f>
         <v>0.2283</v>
       </c>
-      <c r="D11" s="62"/>
-      <c r="E11" s="65" t="s">
+      <c r="D11" s="56"/>
+      <c r="E11" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="57" t="s">
+      <c r="F11" s="54" t="s">
         <v>44</v>
       </c>
       <c r="G11" s="83">
@@ -1878,21 +1893,21 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="21" customHeight="1">
-      <c r="A12" s="61" t="s">
+      <c r="A12" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="62" t="s">
+      <c r="B12" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="62">
+      <c r="C12" s="56">
         <f>ROUND(C6*G13,4)</f>
         <v>1.3696999999999999</v>
       </c>
-      <c r="D12" s="62"/>
-      <c r="E12" s="65" t="s">
+      <c r="D12" s="56"/>
+      <c r="E12" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="57" t="s">
+      <c r="F12" s="54" t="s">
         <v>45</v>
       </c>
       <c r="G12" s="83">
@@ -1901,21 +1916,21 @@
       <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:9" ht="21" customHeight="1">
-      <c r="A13" s="61" t="s">
+      <c r="A13" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="62" t="s">
+      <c r="B13" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62">
+      <c r="C13" s="56"/>
+      <c r="D13" s="56">
         <f>G10*G14</f>
         <v>4</v>
       </c>
-      <c r="E13" s="65" t="s">
+      <c r="E13" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="57" t="s">
+      <c r="F13" s="54" t="s">
         <v>46</v>
       </c>
       <c r="G13" s="4">
@@ -1924,21 +1939,21 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="21" customHeight="1">
-      <c r="A14" s="61" t="s">
+      <c r="A14" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="62" t="s">
+      <c r="B14" s="56" t="s">
         <v>125</v>
       </c>
-      <c r="C14" s="62">
+      <c r="C14" s="56">
         <f>ROUND(C6/(1+0.05)*G15*(1+G16),4)</f>
         <v>0.60880000000000001</v>
       </c>
-      <c r="D14" s="62"/>
-      <c r="E14" s="65" t="s">
+      <c r="D14" s="56"/>
+      <c r="E14" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="57" t="s">
+      <c r="F14" s="54" t="s">
         <v>47</v>
       </c>
       <c r="G14" s="83">
@@ -1946,24 +1961,24 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="21" customHeight="1">
-      <c r="A15" s="61" t="s">
+      <c r="A15" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="62" t="s">
+      <c r="B15" s="56" t="s">
         <v>146</v>
       </c>
-      <c r="C15" s="73">
+      <c r="C15" s="65">
         <f>ROUND(C6+C8-C9,4)</f>
         <v>9.2218</v>
       </c>
-      <c r="D15" s="62">
+      <c r="D15" s="56">
         <f>D6+D8-D9</f>
         <v>-34</v>
       </c>
-      <c r="E15" s="65" t="s">
+      <c r="E15" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="57" t="s">
+      <c r="F15" s="54" t="s">
         <v>68</v>
       </c>
       <c r="G15" s="4">
@@ -1976,126 +1991,126 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="21" customHeight="1">
-      <c r="A16" s="61" t="s">
+      <c r="A16" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="62" t="s">
+      <c r="B16" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="C16" s="62"/>
-      <c r="D16" s="74">
+      <c r="C16" s="56"/>
+      <c r="D16" s="78">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="E16" s="65"/>
-      <c r="F16" s="57" t="s">
+      <c r="E16" s="58"/>
+      <c r="F16" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="G16" s="83">
+      <c r="G16" s="4">
         <f>IF(B32="城市市区",0.12,IF(B32="县城及建制镇",0.1,0.06))</f>
         <v>0.12</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="21" customHeight="1">
-      <c r="A17" s="61" t="s">
+      <c r="A17" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="75" t="s">
+      <c r="B17" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="C17" s="62"/>
-      <c r="D17" s="62">
+      <c r="C17" s="56"/>
+      <c r="D17" s="56">
         <f>ROUND(D3*(1+D16)^D22,0)</f>
         <v>36852</v>
       </c>
-      <c r="E17" s="65"/>
+      <c r="E17" s="58"/>
     </row>
     <row r="18" spans="1:9" ht="21" customHeight="1">
-      <c r="A18" s="61"/>
-      <c r="B18" s="75" t="s">
+      <c r="A18" s="55"/>
+      <c r="B18" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62">
+      <c r="C18" s="56"/>
+      <c r="D18" s="56">
         <f>E33</f>
         <v>3633</v>
       </c>
-      <c r="E18" s="65"/>
+      <c r="E18" s="58"/>
     </row>
     <row r="19" spans="1:9" ht="21" customHeight="1">
-      <c r="A19" s="61"/>
-      <c r="B19" s="75" t="s">
+      <c r="A19" s="55"/>
+      <c r="B19" s="66" t="s">
         <v>121</v>
       </c>
-      <c r="C19" s="62">
+      <c r="C19" s="56">
         <f>D17-D18</f>
         <v>33219</v>
       </c>
-      <c r="D19" s="62">
+      <c r="D19" s="56">
         <f>(D17-D18)/(1+D21)^D22</f>
         <v>26656.621313706226</v>
       </c>
-      <c r="E19" s="65" t="s">
+      <c r="E19" s="58" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="21" customHeight="1">
-      <c r="A20" s="61" t="s">
+      <c r="A20" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="62" t="s">
+      <c r="B20" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62">
+      <c r="C20" s="56"/>
+      <c r="D20" s="56">
         <f>1/D21*(1-1/(1+D21)^D22)</f>
         <v>4.3899767444292417</v>
       </c>
-      <c r="E20" s="65" t="s">
+      <c r="E20" s="58" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="21" customHeight="1">
-      <c r="A21" s="61" t="s">
+      <c r="A21" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="62" t="s">
+      <c r="B21" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="62"/>
-      <c r="D21" s="76">
+      <c r="C21" s="56"/>
+      <c r="D21" s="67">
         <f>F43</f>
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="E21" s="65" t="s">
+      <c r="E21" s="58" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="21" customHeight="1">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="62" t="s">
+      <c r="B22" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="C22" s="62"/>
-      <c r="D22" s="77">
+      <c r="C22" s="56"/>
+      <c r="D22" s="80">
         <v>5</v>
       </c>
-      <c r="E22" s="65"/>
+      <c r="E22" s="58"/>
     </row>
     <row r="23" spans="1:9" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A23" s="78" t="s">
+      <c r="A23" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="79" t="s">
+      <c r="B23" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="79"/>
-      <c r="D23" s="79">
+      <c r="C23" s="69"/>
+      <c r="D23" s="69">
         <f>ROUND(((D3-D19)/D20-D15)/C15,0)</f>
         <v>86</v>
       </c>
-      <c r="E23" s="80"/>
+      <c r="E23" s="70"/>
     </row>
     <row r="24" spans="1:9" ht="24" customHeight="1" thickTop="1">
       <c r="A24" s="45"/>
@@ -2108,7 +2123,7 @@
       <c r="A26" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="B26" s="55">
+      <c r="B26" s="52">
         <v>35</v>
       </c>
     </row>
@@ -2116,7 +2131,7 @@
       <c r="A27" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="28">
+      <c r="B27" s="84">
         <v>30000</v>
       </c>
       <c r="C27" s="29" t="s">
@@ -2139,7 +2154,7 @@
       <c r="A28" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="B28" s="55">
+      <c r="B28" s="52">
         <v>126</v>
       </c>
       <c r="C28" s="33" t="s">
@@ -2165,7 +2180,7 @@
       <c r="A29" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="56" t="s">
+      <c r="B29" s="53" t="s">
         <v>136</v>
       </c>
       <c r="C29" s="33" t="s">
@@ -2191,7 +2206,7 @@
       <c r="A30" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="B30" s="52" t="s">
+      <c r="B30" s="51" t="s">
         <v>52</v>
       </c>
       <c r="C30" s="33" t="s">
@@ -2217,7 +2232,7 @@
       <c r="A31" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="B31" s="56" t="s">
+      <c r="B31" s="53" t="s">
         <v>137</v>
       </c>
       <c r="C31" s="33" t="s">
@@ -2311,7 +2326,7 @@
       <c r="E37" s="48" t="s">
         <v>129</v>
       </c>
-      <c r="F37" s="51">
+      <c r="F37" s="85">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
@@ -2322,7 +2337,7 @@
       <c r="E38" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="F38" s="51">
+      <c r="F38" s="85">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
@@ -2333,7 +2348,7 @@
       <c r="E39" s="48" t="s">
         <v>131</v>
       </c>
-      <c r="F39" s="51">
+      <c r="F39" s="85">
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
@@ -2344,7 +2359,7 @@
       <c r="E40" s="48" t="s">
         <v>132</v>
       </c>
-      <c r="F40" s="51">
+      <c r="F40" s="85">
         <v>0.02</v>
       </c>
     </row>
@@ -2355,7 +2370,7 @@
       <c r="E41" s="48" t="s">
         <v>133</v>
       </c>
-      <c r="F41" s="51">
+      <c r="F41" s="85">
         <v>-0.01</v>
       </c>
     </row>
@@ -2366,7 +2381,7 @@
       <c r="E42" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="F42" s="51">
+      <c r="F42" s="85">
         <v>-7.4999999999999997E-3</v>
       </c>
     </row>
@@ -2384,6 +2399,7 @@
     </row>
     <row r="44" spans="1:6" ht="14.25" thickTop="1"/>
   </sheetData>
+  <sheetProtection password="CC33" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <protectedRanges>
     <protectedRange password="CC33" sqref="B28:B32" name="区域1_1"/>
   </protectedRanges>
@@ -2444,14 +2460,14 @@
     <row r="4" spans="1:10" ht="14.25" thickBot="1"/>
     <row r="5" spans="1:10" ht="15" thickTop="1" thickBot="1">
       <c r="A5" s="13"/>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53" t="s">
+      <c r="C5" s="75"/>
+      <c r="D5" s="75" t="s">
         <v>89</v>
       </c>
-      <c r="E5" s="54"/>
+      <c r="E5" s="76"/>
     </row>
     <row r="6" spans="1:10" ht="14.25" thickTop="1">
       <c r="A6" s="14"/>
